--- a/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
+++ b/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
@@ -105,7 +105,7 @@
     <t>Михалева Екатерина</t>
   </si>
   <si>
-    <t>katymih12@gmail.cjm</t>
+    <t>katymih12@gmail.com</t>
   </si>
   <si>
     <t>Егор Науменко</t>
@@ -203,12 +203,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,14 +245,43 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -260,51 +289,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +318,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -327,61 +365,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,37 +403,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,145 +541,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +615,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -629,6 +645,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -640,6 +671,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,39 +701,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -705,153 +712,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -861,6 +868,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -1211,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1401,7 +1409,7 @@
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3"/>
@@ -1514,10 +1522,10 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1566,7 +1574,7 @@
       </c>
     </row>
     <row r="31" ht="23.4" spans="2:3">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1581,7 +1589,7 @@
     <hyperlink ref="C14" r:id="rId4" display="Annenk14@gmail.com"/>
     <hyperlink ref="C26" r:id="rId5" display="tygilkina.1234567890@gmail.com"/>
     <hyperlink ref="C6" r:id="rId6" display="iv283385@gmail.com"/>
-    <hyperlink ref="C16" r:id="rId7" display="katymih12@gmail.cjm"/>
+    <hyperlink ref="C16" r:id="rId7" display="katymih12@gmail.com" tooltip="mailto:katymih12@gmail.com"/>
     <hyperlink ref="C19" r:id="rId8" display="elena.erg@mail.ru"/>
     <hyperlink ref="C23" r:id="rId9" display="uliasavina476@gmail.com"/>
     <hyperlink ref="C24" r:id="rId10" display="aseleznev2006@mail.ru"/>

--- a/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
+++ b/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
@@ -39,7 +39,7 @@
     <t>Матвей Гливенко</t>
   </si>
   <si>
-    <t>Matvey_gl@mail.ru</t>
+    <t>matvey_gl@mail.ru</t>
   </si>
   <si>
     <t>Гордеев Иван</t>
@@ -84,7 +84,7 @@
     <t>kravchkate@mail.ru</t>
   </si>
   <si>
-    <t>Критический Максим</t>
+    <t>Криличевский Максим</t>
   </si>
   <si>
     <t>Sviridovatl@yandex.ru</t>
@@ -204,9 +204,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -226,6 +226,13 @@
     <font>
       <sz val="18"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
@@ -238,17 +245,71 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
       <sz val="18"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -259,51 +320,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,76 +353,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,187 +403,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,24 +608,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,7 +661,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,164 +694,171 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -866,11 +866,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1277,7 +1280,7 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3"/>
@@ -1289,7 +1292,7 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
@@ -1301,7 +1304,7 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -1337,7 +1340,7 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="3"/>
@@ -1349,7 +1352,7 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3"/>
@@ -1385,7 +1388,7 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3"/>
@@ -1409,7 +1412,7 @@
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3"/>
@@ -1445,7 +1448,7 @@
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
@@ -1492,7 +1495,7 @@
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1503,7 +1506,7 @@
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1522,10 +1525,10 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1547,7 +1550,7 @@
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="31" ht="23.4" spans="2:3">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1596,6 +1599,7 @@
     <hyperlink ref="C28" r:id="rId11" display="Kseniia.chernyshevaa@gmail.com"/>
     <hyperlink ref="C11" r:id="rId12" display="Maria.klepatskaya@yandex.ru"/>
     <hyperlink ref="C10" r:id="rId13" display="patyla2006@mail.ru"/>
+    <hyperlink ref="C5" r:id="rId14" display="matvey_gl@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
+++ b/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -129,7 +129,7 @@
     <t>Потапов Леонид</t>
   </si>
   <si>
-    <t>leonid099@icloud.com</t>
+    <t>leonid0999@icloud.com</t>
   </si>
   <si>
     <t>Ровенских Дарья</t>
@@ -203,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -251,6 +251,21 @@
       <charset val="204"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -259,18 +274,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,9 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,15 +340,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,16 +364,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,42 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -403,37 +403,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,133 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +627,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -643,16 +676,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,189 +709,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -866,12 +866,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -1222,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1460,7 +1461,7 @@
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="3"/>
@@ -1525,10 +1526,10 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1577,7 +1578,7 @@
       </c>
     </row>
     <row r="31" ht="23.4" spans="2:3">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1600,6 +1601,7 @@
     <hyperlink ref="C11" r:id="rId12" display="Maria.klepatskaya@yandex.ru"/>
     <hyperlink ref="C10" r:id="rId13" display="patyla2006@mail.ru"/>
     <hyperlink ref="C5" r:id="rId14" display="matvey_gl@mail.ru"/>
+    <hyperlink ref="C20" r:id="rId15" display="leonid0999@icloud.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
+++ b/Рабочие материалы/56 школа 2021-2022/9 д почта.xlsx
@@ -36,7 +36,7 @@
     <t>byrdykina222@internet.ru</t>
   </si>
   <si>
-    <t>Матвей Гливенко</t>
+    <t xml:space="preserve">Гливенко Матвей </t>
   </si>
   <si>
     <t>matvey_gl@mail.ru</t>
@@ -203,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -251,6 +251,80 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -260,7 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,75 +348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,39 +371,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,43 +403,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,19 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,115 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,21 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -654,8 +639,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,25 +685,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,149 +712,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -872,7 +872,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
